--- a/trunk/poc/social-buzz/doc/TV프로그램_twitter_20110915.xlsx
+++ b/trunk/poc/social-buzz/doc/TV프로그램_twitter_20110915.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="프로그램" sheetId="13" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="320">
   <si>
     <t>program_id</t>
   </si>
@@ -317,30 +317,6 @@
   </si>
   <si>
     <t>SAT</t>
-  </si>
-  <si>
-    <t>@nbcagt OR #AGT, america's got talent, americas got talent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@NCIS_CBS OR #NCIS, ncis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@60Minutes OR #60Minutes, 60minutes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@CBSBigBrother OR #CBSBigBrother OR #bigbrother OR #bb13, big brother</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@BigBang_CBS OR #bigbangtheory OR #BBT OR #TBBT, the big bang theory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@CrimMinds_CBS OR #CriminalMinds, criminal minds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>status</t>
@@ -906,15 +882,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>광개토대왕, 광개토태왕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개그콘서트, 개콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남자의 자격</t>
+    <t>스파이 명월, spy 명월, 스파이 한예슬, 명월 한예슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광개토대왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개그콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해피선데이 - 1박 2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -922,103 +902,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공주의 남자, 공남 kbs, 공남 박시후, 공남 문채원, 공남 홍수현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스파이 명월, spy 명월, 스파이 한예슬, 명월 한예슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리집여자들, 우리집 여자들 kbs, 우리집 여자들 드라마, 우리집 여자들 tv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넌 내게 반했어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천 번의 입맞춤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세바퀴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신 참 예쁘다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 사랑 내곁에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신이 잠든 사이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해피 투게더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계백, 계백 mbc, 계백 드라마, 계백 tv, 계백 이서진, 계백 조재현, 계백 오연수, 계백 사택비, 계백 송지효</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광개토대왕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개그콘서트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해피선데이 - 1박 2일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@1Night_2Days, 해피 1박 2일, 1박 2일 강호동, 1박 2일 이수근, 1박 2일 이승기, 1박 2일 은지원, 1박 2일 kbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오작교 형제들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@muhandojen, 무한도전, 무도 mbc, 무도 tv, 무도 유재석, 무도 박명수, 무도 노홍철, 무도 하하, 무도 정준하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@imasinger_mbc, 우리들의 일밤, 나는 가수다, 나가수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@MBCWeGotMarried, 우리 결혼했어요, 우결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@IMC_BAEKDONGSOO, 무사 백동수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@SBS_BOSS, 보스를 지켜라, boss를 지켜라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@SBSRunningMan, 일요일이 좋다, 런닝맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@scentofawoman20, 여인의 향기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@StarKingSBS, 놀라운대회 스타킹, 스타킹 sbs, 스타킹 tv, 스타킹 강호동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@KangShimJang, 강심장</t>
+    <t>남자의 자격:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@imasinger_mbc:3, 우리들의 일밤:3, 나는 가수다:3, 나가수:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천 번의 입맞춤:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세바퀴:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신 참 예쁘다:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@MBCWeGotMarried:2, 우리 결혼했어요:3, 우결:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@IMC_BAEKDONGSOO:2, 무사 백동수:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 사랑 내곁에:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광개토대왕:3, 광개토태왕:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개그콘서트:3, 개콘:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@1Night_2Days:1, 해피 1박 2일:3, 1박 2일 강호동:2, 1박 2일 이수근:1, 1박 2일 이승기:1, 1박 2일 은지원:1, 1박 2일 kbs:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오작교 형제들:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주의 남자:3, 공남 kbs:1, 공남 박시후:1, 공남 문채원:1, 공남 홍수현:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리집여자들:3, 우리집 여자들 kbs:1, 우리집 여자들 드라마:1, 우리집 여자들 tv:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@muhandojen:3, 무한도전:3, 무도 mbc:2, 무도 tv:2, 무도 유재석:1, 무도 박명수:1, 무도 노홍철:1, 무도 하하:1, 무도 정준하:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 내게 반했어:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계백 mbc:2, 계백 드라마:2, 계백 tv:2, 계백 이서진:1, 계백 조재현:1, 계백 오연수:1, 계백 사택비:1, 계백 송지효:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@SBS_BOSS:2, 보스를 지켜라:3, boss를 지켜라:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 잠든 사이:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해피 투게더:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@SBSRunningMan:2, 일요일이 좋다:2, 런닝맨:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@scentofawoman20:1, 여인의 향기:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@StarKingSBS:2, 놀라운대회 스타킹:2, 스타킹 sbs:1, 스타킹 tv:1, 스타킹 강호동:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@KangShimJang:2, 강심장:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@CBSBigBrother OR #CBSBigBrother OR #bigbrother OR #bb13:10, big brother:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@nbcagt OR #AGT:10, america's got talent:10, americas got talent:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@NCIS_CBS OR #NCIS:10, ncis:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@60Minutes OR #60Minutes:10, 60minutes:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@BigBang_CBS OR #bigbangtheory OR #BBT OR #TBBT:10, the big bang theory:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@CrimMinds_CBS OR #CriminalMinds:10, criminal minds:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1407,10 +1411,10 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1444,10 +1448,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1465,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
@@ -1492,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1500,31 +1504,31 @@
         <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K2" s="2">
         <v>0.90277777777777779</v>
@@ -1533,16 +1537,16 @@
         <v>16</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="121.5" x14ac:dyDescent="0.3">
@@ -1550,16 +1554,16 @@
         <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>91</v>
@@ -1568,31 +1572,31 @@
         <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K3" s="2">
         <v>0.87847222222222221</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1600,16 +1604,16 @@
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>91</v>
@@ -1618,31 +1622,31 @@
         <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K4" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1656,10 +1660,10 @@
         <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>91</v>
@@ -1668,31 +1672,31 @@
         <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K5" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1700,31 +1704,31 @@
         <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K6" s="2">
         <v>0.82986111111111116</v>
@@ -1733,19 +1737,19 @@
         <v>17</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1759,25 +1763,25 @@
         <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K7" s="2">
         <v>0.91319444444444453</v>
@@ -1786,19 +1790,19 @@
         <v>20</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1812,25 +1816,25 @@
         <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>302</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K8" s="2">
         <v>0.91319444444444453</v>
@@ -1839,19 +1843,19 @@
         <v>23</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1865,25 +1869,25 @@
         <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K9" s="2">
         <v>0.85069444444444453</v>
@@ -1892,16 +1896,16 @@
         <v>26</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1915,10 +1919,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>92</v>
@@ -1927,31 +1931,31 @@
         <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>97</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K10" s="2">
         <v>0.77083333333333337</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="40.5" x14ac:dyDescent="0.3">
@@ -1965,25 +1969,25 @@
         <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>86</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K11" s="2">
         <v>0.91319444444444453</v>
@@ -1992,19 +1996,19 @@
         <v>21</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2018,25 +2022,25 @@
         <v>89</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K12" s="2">
         <v>0.91319444444444453</v>
@@ -2045,19 +2049,19 @@
         <v>24</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2071,10 +2075,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>92</v>
@@ -2083,28 +2087,28 @@
         <v>47</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K13" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2118,10 +2122,10 @@
         <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>92</v>
@@ -2130,34 +2134,34 @@
         <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K14" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="S14" s="4" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2171,25 +2175,25 @@
         <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K15" s="2">
         <v>0.86111111111111116</v>
@@ -2198,19 +2202,19 @@
         <v>18</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2224,10 +2228,10 @@
         <v>89</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>92</v>
@@ -2236,34 +2240,34 @@
         <v>45</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>97</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K16" s="2">
         <v>0.95833333333333337</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2277,43 +2281,43 @@
         <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K17" s="2">
         <v>0.82638888888888884</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2327,10 +2331,10 @@
         <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>92</v>
@@ -2339,31 +2343,31 @@
         <v>46</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>97</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K18" s="2">
         <v>0.74652777777777779</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2377,25 +2381,25 @@
         <v>89</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>96</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K19" s="2">
         <v>0.91319444444444453</v>
@@ -2404,19 +2408,19 @@
         <v>25</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2430,25 +2434,25 @@
         <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K20" s="2">
         <v>0.86111111111111116</v>
@@ -2457,19 +2461,19 @@
         <v>19</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2483,25 +2487,25 @@
         <v>89</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K21" s="2">
         <v>0.91319444444444453</v>
@@ -2510,19 +2514,19 @@
         <v>22</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2536,43 +2540,43 @@
         <v>89</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K22" s="2">
         <v>0.80555555555555547</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2586,10 +2590,10 @@
         <v>89</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>91</v>
@@ -2598,34 +2602,34 @@
         <v>43</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K23" s="2">
         <v>0.96180555555555547</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2639,10 +2643,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>93</v>
@@ -2651,31 +2655,31 @@
         <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K24" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2689,46 +2693,46 @@
         <v>89</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K25" s="2">
         <v>0.90972222222222221</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2742,10 +2746,10 @@
         <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>93</v>
@@ -2754,13 +2758,13 @@
         <v>50</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>97</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K26" s="2">
         <v>0.77083333333333337</v>
@@ -2769,16 +2773,16 @@
         <v>76</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2792,10 +2796,10 @@
         <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>93</v>
@@ -2804,54 +2808,54 @@
         <v>49</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K27" s="2">
         <v>0.96875</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>82</v>
@@ -2859,28 +2863,28 @@
       <c r="K28" s="2">
         <v>0.875</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>98</v>
+      <c r="S28" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>80</v>
@@ -2888,28 +2892,28 @@
       <c r="K29" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>99</v>
+      <c r="S29" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>78</v>
@@ -2917,28 +2921,28 @@
       <c r="K30" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>100</v>
+      <c r="S30" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>77</v>
@@ -2946,28 +2950,28 @@
       <c r="K31" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>101</v>
+      <c r="S31" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>79</v>
@@ -2975,28 +2979,28 @@
       <c r="K32" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>102</v>
+      <c r="S32" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>88</v>
@@ -3004,8 +3008,8 @@
       <c r="K33" s="2">
         <v>0.875</v>
       </c>
-      <c r="S33" s="1" t="s">
-        <v>103</v>
+      <c r="S33" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/poc/social-buzz/doc/TV프로그램_twitter_20110915.xlsx
+++ b/trunk/poc/social-buzz/doc/TV프로그램_twitter_20110915.xlsx
@@ -902,127 +902,687 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>남자의 자격:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@imasinger_mbc:3, 우리들의 일밤:3, 나는 가수다:3, 나가수:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천 번의 입맞춤:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세바퀴:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신 참 예쁘다:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@MBCWeGotMarried:2, 우리 결혼했어요:3, 우결:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@IMC_BAEKDONGSOO:2, 무사 백동수:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 사랑 내곁에:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광개토대왕:3, 광개토태왕:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개그콘서트:3, 개콘:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@1Night_2Days:1, 해피 1박 2일:3, 1박 2일 강호동:2, 1박 2일 이수근:1, 1박 2일 이승기:1, 1박 2일 은지원:1, 1박 2일 kbs:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오작교 형제들:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공주의 남자:3, 공남 kbs:1, 공남 박시후:1, 공남 문채원:1, 공남 홍수현:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우리집여자들:3, 우리집 여자들 kbs:1, 우리집 여자들 드라마:1, 우리집 여자들 tv:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@muhandojen:3, 무한도전:3, 무도 mbc:2, 무도 tv:2, 무도 유재석:1, 무도 박명수:1, 무도 노홍철:1, 무도 하하:1, 무도 정준하:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넌 내게 반했어:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계백 mbc:2, 계백 드라마:2, 계백 tv:2, 계백 이서진:1, 계백 조재현:1, 계백 오연수:1, 계백 사택비:1, 계백 송지효:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@SBS_BOSS:2, 보스를 지켜라:3, boss를 지켜라:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신이 잠든 사이:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해피 투게더:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@SBSRunningMan:2, 일요일이 좋다:2, 런닝맨:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@scentofawoman20:1, 여인의 향기:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@StarKingSBS:2, 놀라운대회 스타킹:2, 스타킹 sbs:1, 스타킹 tv:1, 스타킹 강호동:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@KangShimJang:2, 강심장:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@CBSBigBrother OR #CBSBigBrother OR #bigbrother OR #bb13:10, big brother:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@nbcagt OR #AGT:10, america's got talent:10, americas got talent:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@NCIS_CBS OR #NCIS:10, ncis:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>@60Minutes OR #60Minutes:10, 60minutes:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>@BigBang_CBS OR #bigbangtheory OR #BBT OR #TBBT:10, the big bang theory:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@CrimMinds_CBS OR #CriminalMinds:10, criminal minds:10</t>
+    <t>광개토대왕:1, 광개토태왕:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>오작교 형제들:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">@1Night_2Days:1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>박</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>투쟁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>농성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>열공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>패키지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>여행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>휴가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관광:5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 해피 1박 2일:1, 1박 2일 강호동:1, 1박 2일 이수근:1, 1박 2일 이승기:1, 1박 2일 은지원:1, 1박 2일 kbs:1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주의 남자:1, 공남 kbs:1, 공남 박시후:1, 공남 문채원:1, 공남 홍수현:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리집여자들:1, 우리집 여자들 kbs:1, 우리집 여자들 드라마:1, 우리집 여자들 tv:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@muhandojen:1, 무한도전:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 무도 mbc:1, 무도 tv:1, 무도 유재석:1, 무도 박명수:1, 무도 노홍철:1, 무도 하하:1, 무도 정준하:1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 내게 반했어:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계백 mbc:1, 계백 드라마:1, 계백 tv:1, 계백 이서진:1, 계백 조재현:1, 계백 오연수:1, 계백 사택비:1, 계백 송지효:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@imasinger_mbc:1, 우리들의 일밤:1, 나는 가수다:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 나가수:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>남자의 자격:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 남격:5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천 번의 입맞춤:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세바퀴:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신 참 예쁘다:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@MBCWeGotMarried:1, 우리 결혼했어요:1, 우결:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@IMC_BAEKDONGSOO:1, 무사 백동수:1, 백동수:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 사랑 내곁에:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@SBS_BOSS:1, 보스를 지켜라:2, boss를 지켜라:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 잠든 사이:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>해피 투게더:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@SBSRunningMan:1, 일요일이 좋다:1, 런닝맨:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@scentofawoman20:1, 여인의 향기:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@StarKingSBS:1, 놀라운대회 스타킹:1, 스타킹 sbs:1, 스타킹 tv:1, 스타킹 강호동:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@KangShimJang:1, 강심장:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@nbcagt OR #AGT:10, america's got talent:10, americas got talent:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@NCIS_CBS OR #NCIS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ncis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@CBSBigBrother OR #CBSBigBrother OR #bigbrother OR #bb13:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, big brother:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@BigBang_CBS OR #bigbangtheory OR #BBT OR #TBBT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the big bang theory:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@CrimMinds_CBS OR #CriminalMinds:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, criminal minds:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개그콘서트:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 개콘:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1030,7 +1590,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,6 +1619,22 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1411,10 +1987,10 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1546,7 +2122,7 @@
         <v>107</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="121.5" x14ac:dyDescent="0.3">
@@ -1596,7 +2172,7 @@
         <v>114</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1646,7 +2222,7 @@
         <v>120</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1696,7 +2272,7 @@
         <v>123</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1749,7 +2325,7 @@
         <v>130</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1802,7 +2378,7 @@
         <v>137</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1816,7 +2392,7 @@
         <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>101</v>
@@ -1905,7 +2481,7 @@
         <v>150</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -1955,7 +2531,7 @@
         <v>156</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="40.5" x14ac:dyDescent="0.3">
@@ -2008,7 +2584,7 @@
         <v>163</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2061,7 +2637,7 @@
         <v>170</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2161,7 +2737,7 @@
         <v>180</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2214,7 +2790,7 @@
         <v>187</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2267,7 +2843,7 @@
         <v>194</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2317,7 +2893,7 @@
         <v>201</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2367,7 +2943,7 @@
         <v>207</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2420,7 +2996,7 @@
         <v>214</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2473,7 +3049,7 @@
         <v>221</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="54" x14ac:dyDescent="0.3">
@@ -2864,7 +3440,7 @@
         <v>0.875</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -2893,7 +3469,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -2922,7 +3498,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.3">
@@ -2951,7 +3527,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.3">
@@ -2980,7 +3556,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="27" x14ac:dyDescent="0.3">
@@ -3009,7 +3585,7 @@
         <v>0.875</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
